--- a/data/trans_orig/Q5409A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Edad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3025</v>
+        <v>2787</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02122584306743768</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1052933102332015</v>
+        <v>0.09699618154591226</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>2456</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5663</v>
+        <v>5875</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07946003063088038</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02164018541821332</v>
+        <v>0.02186540227535556</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1832380216924106</v>
+        <v>0.1901235172230942</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>3065</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>872</v>
+        <v>1102</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7041</v>
+        <v>6762</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05140258051174963</v>
+        <v>0.05140258051174962</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01461704460809894</v>
+        <v>0.01848695314605383</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1180646276984976</v>
+        <v>0.1133934100457405</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>14708</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10307</v>
+        <v>10318</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18997</v>
+        <v>19174</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5118872777536313</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3587065988313663</v>
+        <v>0.35908531559691</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6611498850556973</v>
+        <v>0.6673243581713134</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -833,19 +833,19 @@
         <v>19730</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15564</v>
+        <v>15788</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23405</v>
+        <v>23425</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6384421736451501</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5036341390478083</v>
+        <v>0.5108860113906153</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7573553313982948</v>
+        <v>0.7580243732647212</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>57</v>
@@ -854,19 +854,19 @@
         <v>34438</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28408</v>
+        <v>28809</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39932</v>
+        <v>41041</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5774675498480948</v>
+        <v>0.5774675498480947</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4763582678593972</v>
+        <v>0.4830841423403093</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6695940913259911</v>
+        <v>0.6881844877215347</v>
       </c>
     </row>
     <row r="6">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3402</v>
+        <v>3315</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02189447731042546</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1100822883022159</v>
+        <v>0.1072654633764273</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3710</v>
+        <v>3798</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01134563597298162</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06221424289367716</v>
+        <v>0.06368151164926494</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>2701</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>975</v>
+        <v>710</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6310</v>
+        <v>6687</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09400367588214609</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03392783558203107</v>
+        <v>0.02470818427119337</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2196085906959843</v>
+        <v>0.232728667474064</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -967,19 +967,19 @@
         <v>2219</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5045</v>
+        <v>5391</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07181585035187771</v>
+        <v>0.07181585035187772</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01981271333669155</v>
+        <v>0.01995524977431766</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1632564385466168</v>
+        <v>0.1744386073606833</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -988,19 +988,19 @@
         <v>4920</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2271</v>
+        <v>2295</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9711</v>
+        <v>9168</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08250602796256847</v>
+        <v>0.08250602796256845</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03808283806901411</v>
+        <v>0.03848024833945676</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1628438566841378</v>
+        <v>0.1537379987347806</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>10714</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6904</v>
+        <v>6824</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15463</v>
+        <v>15179</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3728832032967849</v>
+        <v>0.3728832032967848</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2402845004520241</v>
+        <v>0.2374808521184008</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5381565873085428</v>
+        <v>0.5282825675156083</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1038,19 +1038,19 @@
         <v>5822</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2999</v>
+        <v>3355</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9293</v>
+        <v>9377</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1883874680616664</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09705063279577407</v>
+        <v>0.1085585391177103</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3007105876928306</v>
+        <v>0.3034492510088627</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -1059,19 +1059,19 @@
         <v>16536</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11543</v>
+        <v>11085</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22108</v>
+        <v>22273</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2772782057046055</v>
+        <v>0.2772782057046054</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.193555296574604</v>
+        <v>0.1858776246952116</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3707109423537722</v>
+        <v>0.3734803631637462</v>
       </c>
     </row>
     <row r="9">
@@ -1163,19 +1163,19 @@
         <v>1823</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4158</v>
+        <v>4134</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04145346265170719</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01464211033905645</v>
+        <v>0.01498362457284886</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09453770686680923</v>
+        <v>0.09400735434326514</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1184,19 +1184,19 @@
         <v>11930</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7757</v>
+        <v>7407</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18078</v>
+        <v>18134</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1038929638002157</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06754902235409489</v>
+        <v>0.06450503519885109</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1574330107104258</v>
+        <v>0.1579201290658017</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -1205,19 +1205,19 @@
         <v>13753</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9144</v>
+        <v>9103</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20152</v>
+        <v>20211</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08660126904479132</v>
+        <v>0.0866012690447913</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05757970443485994</v>
+        <v>0.05732243536472922</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1268919841217299</v>
+        <v>0.1272650250440001</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>22250</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17323</v>
+        <v>16892</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27719</v>
+        <v>27785</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5059006226327338</v>
+        <v>0.5059006226327337</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3938737834000393</v>
+        <v>0.3840761561329485</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6302583232146945</v>
+        <v>0.6317705818614917</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>123</v>
@@ -1255,19 +1255,19 @@
         <v>64892</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>56796</v>
+        <v>57248</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>73118</v>
+        <v>73650</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5651125956440742</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4946067128206733</v>
+        <v>0.4985436653903062</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6367542113144563</v>
+        <v>0.6413816340366923</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>156</v>
@@ -1276,19 +1276,19 @@
         <v>87142</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>76339</v>
+        <v>77577</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>96044</v>
+        <v>97065</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5487147169880084</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4806911469863807</v>
+        <v>0.4884840274231761</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.604768813884348</v>
+        <v>0.6111959911432321</v>
       </c>
     </row>
     <row r="12">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3547</v>
+        <v>2974</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01546034071702343</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08065421836079063</v>
+        <v>0.06761298798839489</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1326,19 +1326,19 @@
         <v>3944</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1704</v>
+        <v>1625</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8031</v>
+        <v>8434</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0343449799444551</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01484132335077698</v>
+        <v>0.01415464439391936</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06993623564162096</v>
+        <v>0.07344891497388961</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1347,19 +1347,19 @@
         <v>4624</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2078</v>
+        <v>2138</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9219</v>
+        <v>8727</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02911515890039535</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01308392197189086</v>
+        <v>0.01346202189868975</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05804757092279654</v>
+        <v>0.05495509816099298</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>4957</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2335</v>
+        <v>2537</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8977</v>
+        <v>9295</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.112700684521709</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05308276757884745</v>
+        <v>0.05767415295256595</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2041136790923401</v>
+        <v>0.2113391042453621</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -1397,19 +1397,19 @@
         <v>19092</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13452</v>
+        <v>12516</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26518</v>
+        <v>25528</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1662659797079434</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1171429607079092</v>
+        <v>0.1089980072661865</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2309346857329131</v>
+        <v>0.2223122663271932</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -1418,19 +1418,19 @@
         <v>24049</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17212</v>
+        <v>17401</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33034</v>
+        <v>32358</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1514318648158083</v>
+        <v>0.1514318648158084</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1083772710607367</v>
+        <v>0.1095690410089546</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2080082747873827</v>
+        <v>0.2037502193094229</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>14271</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9821</v>
+        <v>9866</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19864</v>
+        <v>19796</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3244848894768264</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2233080602200893</v>
+        <v>0.2243349363590317</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4516690711921362</v>
+        <v>0.4501124664918568</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -1468,19 +1468,19 @@
         <v>14972</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10162</v>
+        <v>10159</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21755</v>
+        <v>22271</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1303834809033114</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08849686186127401</v>
+        <v>0.08847159511567833</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1894500798978669</v>
+        <v>0.193945870247769</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -1489,19 +1489,19 @@
         <v>29243</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22655</v>
+        <v>21762</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38059</v>
+        <v>38009</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1841369902509965</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1426550408640137</v>
+        <v>0.1370325210518462</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2396488767968619</v>
+        <v>0.2393330044739093</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>2433</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>999</v>
+        <v>923</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5411</v>
+        <v>4948</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03346042764996544</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01373338448077071</v>
+        <v>0.01269835772638239</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07441840569717512</v>
+        <v>0.06804213289107425</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -1614,19 +1614,19 @@
         <v>14386</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9180</v>
+        <v>9615</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20899</v>
+        <v>20831</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09871188642479489</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0629909197013036</v>
+        <v>0.06597889128555283</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1434058297937465</v>
+        <v>0.14294000414911</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1635,19 +1635,19 @@
         <v>16819</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11706</v>
+        <v>11663</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23834</v>
+        <v>23986</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0769919915570879</v>
+        <v>0.07699199155708791</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05358839461317697</v>
+        <v>0.05338922796039912</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1091062447264875</v>
+        <v>0.1098044557532624</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>36958</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30286</v>
+        <v>29712</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44090</v>
+        <v>44015</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.508266276372925</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4165093325904505</v>
+        <v>0.4086178510882298</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6063565578378137</v>
+        <v>0.605319284388534</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>158</v>
@@ -1685,19 +1685,19 @@
         <v>84622</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75572</v>
+        <v>75214</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92384</v>
+        <v>93702</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5806623544428813</v>
+        <v>0.5806623544428812</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5185606920846904</v>
+        <v>0.5161021327642697</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6339207432776652</v>
+        <v>0.6429668587626333</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>213</v>
@@ -1706,19 +1706,19 @@
         <v>121580</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>110783</v>
+        <v>110024</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>132400</v>
+        <v>133417</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.556564269372631</v>
+        <v>0.5565642693726311</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5071411488289446</v>
+        <v>0.5036652318917783</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6060957627911822</v>
+        <v>0.6107502755894358</v>
       </c>
     </row>
     <row r="18">
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3811</v>
+        <v>3378</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.009351117435697599</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05240711767244532</v>
+        <v>0.04645698617703969</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -1756,19 +1756,19 @@
         <v>4620</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2341</v>
+        <v>2080</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9201</v>
+        <v>8978</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03170481320464064</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01606302153302937</v>
+        <v>0.01426937547962796</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06313550611782044</v>
+        <v>0.0616074083405</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>9</v>
@@ -1777,19 +1777,19 @@
         <v>5300</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2596</v>
+        <v>2587</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10527</v>
+        <v>10449</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02426406121039653</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01188298759864866</v>
+        <v>0.01184117403037198</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04819109625803874</v>
+        <v>0.04783099555944682</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>7658</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4183</v>
+        <v>3978</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12216</v>
+        <v>12596</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1053124773299881</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05753336970674283</v>
+        <v>0.05470865318243589</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1680075681447912</v>
+        <v>0.1732223883033141</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -1827,19 +1827,19 @@
         <v>21312</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15271</v>
+        <v>15817</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28594</v>
+        <v>30155</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1462375441156728</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1047898322232408</v>
+        <v>0.1085325354459935</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1962041917089439</v>
+        <v>0.2069188470793517</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -1848,19 +1848,19 @@
         <v>28969</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21724</v>
+        <v>21510</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36905</v>
+        <v>37209</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.132615041803405</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09944745893506407</v>
+        <v>0.0984698277928054</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1689411094262313</v>
+        <v>0.1703354354240078</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>24985</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18554</v>
+        <v>18642</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31817</v>
+        <v>32158</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3436097012114239</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2551724896445453</v>
+        <v>0.2563804896982615</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4375628999808953</v>
+        <v>0.4422597120709089</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -1898,19 +1898,19 @@
         <v>20794</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14983</v>
+        <v>14981</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28796</v>
+        <v>28231</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1426834018120105</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1028083532247803</v>
+        <v>0.1027971393207897</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1975960145220623</v>
+        <v>0.1937138079504133</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>74</v>
@@ -1919,19 +1919,19 @@
         <v>45779</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>36381</v>
+        <v>36266</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>55576</v>
+        <v>55505</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2095646360564794</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1665454751939071</v>
+        <v>0.1660168399696089</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2544141961562119</v>
+        <v>0.2540893156771922</v>
       </c>
     </row>
     <row r="21">
